--- a/Tabellen.xlsx
+++ b/Tabellen.xlsx
@@ -1,30 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian Bohn\Developer\Bachelorarbeit_Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s.bohn/Developer/Bachelorarbeit_Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="38380" yWindow="-4340" windowWidth="31060" windowHeight="27800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Android Versionen" sheetId="1" r:id="rId1"/>
+    <sheet name="IOS Versionen" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="140">
+  <si>
+    <t>Android Versionen</t>
+  </si>
   <si>
     <t>Codename</t>
   </si>
@@ -32,91 +36,85 @@
     <t>Version</t>
   </si>
   <si>
-    <t>Erscheinungsdatum</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>API level 14 - 23</t>
-  </si>
-  <si>
     <t>Marshmallow</t>
   </si>
   <si>
     <t>Lollipop</t>
   </si>
   <si>
+    <t>5. Oktober 2015</t>
+  </si>
+  <si>
+    <t>Wear</t>
+  </si>
+  <si>
+    <t>KitKat</t>
+  </si>
+  <si>
     <t>5.1.x</t>
   </si>
   <si>
-    <t xml:space="preserve">9. März 2015 - </t>
-  </si>
-  <si>
     <t>5.0.x</t>
   </si>
   <si>
+    <t>4.4W</t>
+  </si>
+  <si>
+    <t>4.4.x</t>
+  </si>
+  <si>
+    <t>Jelly Bean</t>
+  </si>
+  <si>
+    <t>4.3.x</t>
+  </si>
+  <si>
+    <t>4.2.x</t>
+  </si>
+  <si>
+    <t>4.1.x</t>
+  </si>
+  <si>
+    <t>Ice Cream Sandwich</t>
+  </si>
+  <si>
+    <t>4.0.3 - 4.0.4</t>
+  </si>
+  <si>
+    <t>15, NDK 8</t>
+  </si>
+  <si>
+    <t>4.0 - 4.0.2</t>
+  </si>
+  <si>
+    <t>14, NDK 7</t>
+  </si>
+  <si>
     <t>3. November 2014 - 19. Dezember 2014</t>
   </si>
   <si>
-    <t>Wear</t>
-  </si>
-  <si>
-    <t>4.4W</t>
-  </si>
-  <si>
-    <t>KitKat</t>
-  </si>
-  <si>
-    <t>4.4.x</t>
-  </si>
-  <si>
     <t>31. Oktober 2013 - 19. Juni 2014</t>
   </si>
   <si>
-    <t>Jelly Bean</t>
-  </si>
-  <si>
-    <t>4.3.x</t>
-  </si>
-  <si>
-    <t>24. Juli 2013 -         4. Oktober 2013</t>
-  </si>
-  <si>
-    <t>4.2.x</t>
+    <t>24. Juli 2013 - 4. Oktober 2013</t>
   </si>
   <si>
     <t>13. November 2012 - 12. Februar 2013</t>
   </si>
   <si>
-    <t>4.1.x</t>
-  </si>
-  <si>
-    <t>27. Juni 2012 -      10. Oktober 2012</t>
-  </si>
-  <si>
-    <t>Ice Cream Sandwich</t>
-  </si>
-  <si>
-    <t>4.0.3 - 4.0.4</t>
-  </si>
-  <si>
-    <t>15, NDK 8</t>
+    <t>27. Juni 2012 - 10. Oktober 2012</t>
   </si>
   <si>
     <t>16. Dezember 2011 - 4. Februar 2012</t>
   </si>
   <si>
-    <t>4.0 - 4.0.2</t>
-  </si>
-  <si>
-    <t>14, NDK 7</t>
-  </si>
-  <si>
     <t>19. Oktober 2011 - 15. Dezember 2011</t>
   </si>
   <si>
-    <t>API level 1 - 13</t>
+    <t>9. März 2015</t>
+  </si>
+  <si>
+    <t>Juni 2014</t>
   </si>
   <si>
     <t>Honeycomb</t>
@@ -128,9 +126,6 @@
     <t>12, NDK 6</t>
   </si>
   <si>
-    <t>3.0</t>
-  </si>
-  <si>
     <t>Gingerbread</t>
   </si>
   <si>
@@ -170,9 +165,6 @@
     <t>2.0.1</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
     <t>Donut</t>
   </si>
   <si>
@@ -188,40 +180,345 @@
     <t>ohne Codename</t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>16. Juli 2011</t>
+  </si>
+  <si>
+    <t>10. Mai 2011</t>
+  </si>
+  <si>
+    <t>23. Februar 2011</t>
+  </si>
+  <si>
+    <t>12. Dezember 2010</t>
+  </si>
+  <si>
+    <t>3. Dezember 2009</t>
+  </si>
+  <si>
+    <t>26. Oktober 2009</t>
+  </si>
+  <si>
+    <t>15. September 2009</t>
+  </si>
+  <si>
+    <t>30. April 2009</t>
+  </si>
+  <si>
+    <t>10. Februar 2009</t>
+  </si>
+  <si>
+    <t>23. September 2008</t>
+  </si>
+  <si>
+    <t>Erscheinungs- datum</t>
+  </si>
+  <si>
+    <t>iOS Versionen</t>
+  </si>
+  <si>
+    <t>Hoodoo</t>
+  </si>
+  <si>
+    <t>7. März 2012</t>
+  </si>
+  <si>
+    <t>Telluride</t>
+  </si>
+  <si>
+    <t>12. Oktober 2011</t>
+  </si>
+  <si>
+    <t>Durango</t>
+  </si>
+  <si>
+    <t>9. März 2011</t>
+  </si>
+  <si>
+    <t>Jasper</t>
+  </si>
+  <si>
+    <t>22. November 2010</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>Apex</t>
+  </si>
+  <si>
+    <t>4.0.x</t>
+  </si>
+  <si>
+    <t>21. Juni 2010</t>
+  </si>
+  <si>
+    <t>Wildcat</t>
+  </si>
+  <si>
+    <t>Northstar</t>
+  </si>
+  <si>
+    <t>3.1.x</t>
+  </si>
+  <si>
+    <t>Kirkwood</t>
+  </si>
+  <si>
+    <t>3.0.x</t>
+  </si>
+  <si>
+    <t>Timberline</t>
+  </si>
+  <si>
+    <t>2.2.x</t>
+  </si>
+  <si>
+    <t>Sugarbowl</t>
+  </si>
+  <si>
+    <t>2.1.x</t>
+  </si>
+  <si>
+    <t>Big Bear</t>
+  </si>
+  <si>
+    <t>2.x</t>
+  </si>
+  <si>
+    <t>Little Bear</t>
+  </si>
+  <si>
+    <t>1.1.x</t>
+  </si>
+  <si>
+    <t>Alpine</t>
+  </si>
+  <si>
+    <t>1.0.x</t>
+  </si>
+  <si>
+    <t>Monarch</t>
+  </si>
+  <si>
+    <t>9.2 Beta</t>
+  </si>
+  <si>
+    <t>9.0.x</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>8.4.x</t>
+  </si>
+  <si>
+    <t>Stowe</t>
+  </si>
+  <si>
+    <t>OkemoZurs</t>
+  </si>
+  <si>
+    <t>OkemoTaos</t>
+  </si>
+  <si>
+    <t>8.1.x</t>
+  </si>
+  <si>
+    <t>Okemo</t>
+  </si>
+  <si>
+    <t>8.0.x</t>
+  </si>
+  <si>
+    <t>17. September 2014</t>
+  </si>
+  <si>
+    <t>Sochi</t>
+  </si>
+  <si>
+    <t>7.1.x</t>
+  </si>
+  <si>
+    <t>10. März 2014</t>
+  </si>
+  <si>
+    <t>Innsbruck</t>
+  </si>
+  <si>
+    <t>7.0.x</t>
+  </si>
+  <si>
+    <t>18. September 2013</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>6.1.x</t>
+  </si>
+  <si>
+    <t>21. Februar 2013</t>
+  </si>
+  <si>
+    <t>Sundance</t>
+  </si>
+  <si>
+    <t>6.0.x</t>
+  </si>
+  <si>
+    <t>19. September 2012</t>
+  </si>
+  <si>
+    <t>Version 5 - 1</t>
+  </si>
+  <si>
+    <t>Version 9 - 6</t>
+  </si>
+  <si>
+    <t>8. September 2010</t>
+  </si>
+  <si>
+    <t>3. April 2010</t>
+  </si>
+  <si>
+    <t>9. September 2009</t>
+  </si>
+  <si>
+    <t>17. Juni 2009</t>
+  </si>
+  <si>
+    <t>21. November 2008</t>
+  </si>
+  <si>
+    <t>9. September 2008</t>
+  </si>
+  <si>
+    <t>11. Juli 2008</t>
+  </si>
+  <si>
+    <t>14. September 2007</t>
+  </si>
+  <si>
+    <t>29. Juni 2007</t>
+  </si>
+  <si>
+    <t>3. November 2015</t>
+  </si>
+  <si>
+    <t>21. Oktober 2015</t>
+  </si>
+  <si>
+    <t>16. September 2015</t>
+  </si>
+  <si>
+    <t>30. Juni 2015</t>
+  </si>
+  <si>
+    <t>8. April 2015</t>
+  </si>
+  <si>
+    <t>9. Dezember 2015</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>API Level 23 - 1</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.5"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.5"/>
+      <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -321,72 +618,104 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -431,9 +760,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -466,9 +795,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -648,347 +977,719 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>23</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>22</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>21</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
+        <v>20</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6">
+        <v>18</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4">
+        <v>17</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="25">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6">
+        <v>10</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="25">
+        <v>2.1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="6">
+        <v>6</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="25">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="25">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5">
-        <v>23</v>
-      </c>
-      <c r="D2" s="6">
-        <v>42282</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="5">
-        <v>13</v>
-      </c>
-      <c r="I2" s="6">
-        <v>40740</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8">
-        <v>22</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="12">
-        <v>42007</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="13">
-        <v>40673</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5">
-        <v>21</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="5">
-        <v>11</v>
-      </c>
-      <c r="I4" s="6">
-        <v>40597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="8">
-        <v>20</v>
-      </c>
-      <c r="D5" s="11">
-        <v>41791</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="8">
-        <v>10</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5">
-        <v>19</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="8">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5">
-        <v>17</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="14">
-        <v>42006</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="6">
-        <v>40190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="8">
-        <v>16</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="8">
-        <v>6</v>
-      </c>
-      <c r="I9" s="13">
-        <v>40150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="5">
-        <v>5</v>
-      </c>
-      <c r="I10" s="6">
-        <v>40112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+    </row>
+    <row r="21" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+    </row>
+    <row r="22" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="12">
-        <v>42156</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="13">
-        <v>40071</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="14">
-        <v>42125</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="6">
-        <v>39933</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="12">
-        <v>42005</v>
-      </c>
-      <c r="H13" s="8">
-        <v>2</v>
-      </c>
-      <c r="I13" s="13">
-        <v>39854</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6">
-        <v>39714</v>
+    </row>
+    <row r="29" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tabellen.xlsx
+++ b/Tabellen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38380" yWindow="-4340" windowWidth="31060" windowHeight="27800" tabRatio="500"/>
+    <workbookView xWindow="38400" yWindow="-4340" windowWidth="31060" windowHeight="27800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Android Versionen" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="141">
   <si>
     <t>Android Versionen</t>
   </si>
@@ -445,6 +445,9 @@
   </si>
   <si>
     <t>1.6</t>
+  </si>
+  <si>
+    <t>Erscheinungsdatum</t>
   </si>
 </sst>
 </file>
@@ -983,15 +986,15 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A3" sqref="A3:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1011,7 +1014,7 @@
         <v>135</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
